--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.80464730441159</v>
+        <v>1.839677666666667</v>
       </c>
       <c r="H2">
-        <v>1.80464730441159</v>
+        <v>5.519032999999999</v>
       </c>
       <c r="I2">
-        <v>0.09549426498117931</v>
+        <v>0.09177420527696697</v>
       </c>
       <c r="J2">
-        <v>0.09549426498117931</v>
+        <v>0.09177420527696695</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.01781393798164</v>
+        <v>1.094639333333333</v>
       </c>
       <c r="N2">
-        <v>1.01781393798164</v>
+        <v>3.283918</v>
       </c>
       <c r="O2">
-        <v>0.1719033284865006</v>
+        <v>0.1741561977210106</v>
       </c>
       <c r="P2">
-        <v>0.1719033284865006</v>
+        <v>0.1741561977210106</v>
       </c>
       <c r="Q2">
-        <v>1.836795179571112</v>
+        <v>2.013783534588222</v>
       </c>
       <c r="R2">
-        <v>1.836795179571112</v>
+        <v>18.124051811294</v>
       </c>
       <c r="S2">
-        <v>0.0164157820016366</v>
+        <v>0.01598304663990407</v>
       </c>
       <c r="T2">
-        <v>0.0164157820016366</v>
+        <v>0.01598304663990407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.80464730441159</v>
+        <v>1.839677666666667</v>
       </c>
       <c r="H3">
-        <v>1.80464730441159</v>
+        <v>5.519032999999999</v>
       </c>
       <c r="I3">
-        <v>0.09549426498117931</v>
+        <v>0.09177420527696697</v>
       </c>
       <c r="J3">
-        <v>0.09549426498117931</v>
+        <v>0.09177420527696695</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.58866678019261</v>
+        <v>1.695098</v>
       </c>
       <c r="N3">
-        <v>1.58866678019261</v>
+        <v>5.085294</v>
       </c>
       <c r="O3">
-        <v>0.2683173192858829</v>
+        <v>0.2696886668100327</v>
       </c>
       <c r="P3">
-        <v>0.2683173192858829</v>
+        <v>0.2696886668100327</v>
       </c>
       <c r="Q3">
-        <v>2.866983222482834</v>
+        <v>3.118433933411333</v>
       </c>
       <c r="R3">
-        <v>2.866983222482834</v>
+        <v>28.065905400702</v>
       </c>
       <c r="S3">
-        <v>0.02562276518692579</v>
+        <v>0.02475046306869549</v>
       </c>
       <c r="T3">
-        <v>0.02562276518692579</v>
+        <v>0.02475046306869548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.80464730441159</v>
+        <v>1.839677666666667</v>
       </c>
       <c r="H4">
-        <v>1.80464730441159</v>
+        <v>5.519032999999999</v>
       </c>
       <c r="I4">
-        <v>0.09549426498117931</v>
+        <v>0.09177420527696697</v>
       </c>
       <c r="J4">
-        <v>0.09549426498117931</v>
+        <v>0.09177420527696695</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.55456489459066</v>
+        <v>1.596920666666667</v>
       </c>
       <c r="N4">
-        <v>1.55456489459066</v>
+        <v>4.790762</v>
       </c>
       <c r="O4">
-        <v>0.2625576932639932</v>
+        <v>0.2540687356098125</v>
       </c>
       <c r="P4">
-        <v>0.2625576932639932</v>
+        <v>0.2540687356098125</v>
       </c>
       <c r="Q4">
-        <v>2.805441346555922</v>
+        <v>2.937819285905111</v>
       </c>
       <c r="R4">
-        <v>2.805441346555922</v>
+        <v>26.440373573146</v>
       </c>
       <c r="S4">
-        <v>0.02507275393339897</v>
+        <v>0.02331695629631438</v>
       </c>
       <c r="T4">
-        <v>0.02507275393339897</v>
+        <v>0.02331695629631437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.80464730441159</v>
+        <v>1.839677666666667</v>
       </c>
       <c r="H5">
-        <v>1.80464730441159</v>
+        <v>5.519032999999999</v>
       </c>
       <c r="I5">
-        <v>0.09549426498117931</v>
+        <v>0.09177420527696697</v>
       </c>
       <c r="J5">
-        <v>0.09549426498117931</v>
+        <v>0.09177420527696695</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.893528668562849</v>
+        <v>0.9413263333333334</v>
       </c>
       <c r="N5">
-        <v>0.893528668562849</v>
+        <v>2.823979</v>
       </c>
       <c r="O5">
-        <v>0.1509122114486466</v>
+        <v>0.1497642283041117</v>
       </c>
       <c r="P5">
-        <v>0.1509122114486466</v>
+        <v>0.1497642283041117</v>
       </c>
       <c r="Q5">
-        <v>1.612504103136422</v>
+        <v>1.731737032478555</v>
       </c>
       <c r="R5">
-        <v>1.612504103136422</v>
+        <v>15.585633292307</v>
       </c>
       <c r="S5">
-        <v>0.01441125070897282</v>
+        <v>0.01374449303152809</v>
       </c>
       <c r="T5">
-        <v>0.01441125070897282</v>
+        <v>0.01374449303152809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.80464730441159</v>
+        <v>1.839677666666667</v>
       </c>
       <c r="H6">
-        <v>1.80464730441159</v>
+        <v>5.519032999999999</v>
       </c>
       <c r="I6">
-        <v>0.09549426498117931</v>
+        <v>0.09177420527696697</v>
       </c>
       <c r="J6">
-        <v>0.09549426498117931</v>
+        <v>0.09177420527696695</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.866276390633301</v>
+        <v>0.9574039999999999</v>
       </c>
       <c r="N6">
-        <v>0.866276390633301</v>
+        <v>2.872212</v>
       </c>
       <c r="O6">
-        <v>0.1463094475149766</v>
+        <v>0.1523221715550325</v>
       </c>
       <c r="P6">
-        <v>0.1463094475149766</v>
+        <v>0.1523221715550325</v>
       </c>
       <c r="Q6">
-        <v>1.563323353231788</v>
+        <v>1.761314756777333</v>
       </c>
       <c r="R6">
-        <v>1.563323353231788</v>
+        <v>15.851832810996</v>
       </c>
       <c r="S6">
-        <v>0.01397171315024513</v>
+        <v>0.01397924624052493</v>
       </c>
       <c r="T6">
-        <v>0.01397171315024513</v>
+        <v>0.01397924624052493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.28673524619475</v>
+        <v>7.438224333333333</v>
       </c>
       <c r="H7">
-        <v>7.28673524619475</v>
+        <v>22.314673</v>
       </c>
       <c r="I7">
-        <v>0.3855830581115689</v>
+        <v>0.3710634418367117</v>
       </c>
       <c r="J7">
-        <v>0.3855830581115689</v>
+        <v>0.3710634418367116</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01781393798164</v>
+        <v>1.094639333333333</v>
       </c>
       <c r="N7">
-        <v>1.01781393798164</v>
+        <v>3.283918</v>
       </c>
       <c r="O7">
-        <v>0.1719033284865006</v>
+        <v>0.1741561977210106</v>
       </c>
       <c r="P7">
-        <v>0.1719033284865006</v>
+        <v>0.1741561977210106</v>
       </c>
       <c r="Q7">
-        <v>7.416540695959093</v>
+        <v>8.142172925423777</v>
       </c>
       <c r="R7">
-        <v>7.416540695959093</v>
+        <v>73.279556328814</v>
       </c>
       <c r="S7">
-        <v>0.06628301109738247</v>
+        <v>0.06462299814355307</v>
       </c>
       <c r="T7">
-        <v>0.06628301109738247</v>
+        <v>0.06462299814355307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.28673524619475</v>
+        <v>7.438224333333333</v>
       </c>
       <c r="H8">
-        <v>7.28673524619475</v>
+        <v>22.314673</v>
       </c>
       <c r="I8">
-        <v>0.3855830581115689</v>
+        <v>0.3710634418367117</v>
       </c>
       <c r="J8">
-        <v>0.3855830581115689</v>
+        <v>0.3710634418367116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.58866678019261</v>
+        <v>1.695098</v>
       </c>
       <c r="N8">
-        <v>1.58866678019261</v>
+        <v>5.085294</v>
       </c>
       <c r="O8">
-        <v>0.2683173192858829</v>
+        <v>0.2696886668100327</v>
       </c>
       <c r="P8">
-        <v>0.2683173192858829</v>
+        <v>0.2696886668100327</v>
       </c>
       <c r="Q8">
-        <v>11.57619422168822</v>
+        <v>12.60851919098467</v>
       </c>
       <c r="R8">
-        <v>11.57619422168822</v>
+        <v>113.476672718862</v>
       </c>
       <c r="S8">
-        <v>0.103458612514549</v>
+        <v>0.1000716049308849</v>
       </c>
       <c r="T8">
-        <v>0.103458612514549</v>
+        <v>0.1000716049308849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.28673524619475</v>
+        <v>7.438224333333333</v>
       </c>
       <c r="H9">
-        <v>7.28673524619475</v>
+        <v>22.314673</v>
       </c>
       <c r="I9">
-        <v>0.3855830581115689</v>
+        <v>0.3710634418367117</v>
       </c>
       <c r="J9">
-        <v>0.3855830581115689</v>
+        <v>0.3710634418367116</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.55456489459066</v>
+        <v>1.596920666666667</v>
       </c>
       <c r="N9">
-        <v>1.55456489459066</v>
+        <v>4.790762</v>
       </c>
       <c r="O9">
-        <v>0.2625576932639932</v>
+        <v>0.2540687356098125</v>
       </c>
       <c r="P9">
-        <v>0.2625576932639932</v>
+        <v>0.2540687356098125</v>
       </c>
       <c r="Q9">
-        <v>11.32770280991079</v>
+        <v>11.87825416120289</v>
       </c>
       <c r="R9">
-        <v>11.32770280991079</v>
+        <v>106.904287450826</v>
       </c>
       <c r="S9">
-        <v>0.1012377982994498</v>
+        <v>0.09427561949847853</v>
       </c>
       <c r="T9">
-        <v>0.1012377982994498</v>
+        <v>0.09427561949847851</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.28673524619475</v>
+        <v>7.438224333333333</v>
       </c>
       <c r="H10">
-        <v>7.28673524619475</v>
+        <v>22.314673</v>
       </c>
       <c r="I10">
-        <v>0.3855830581115689</v>
+        <v>0.3710634418367117</v>
       </c>
       <c r="J10">
-        <v>0.3855830581115689</v>
+        <v>0.3710634418367116</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.893528668562849</v>
+        <v>0.9413263333333334</v>
       </c>
       <c r="N10">
-        <v>0.893528668562849</v>
+        <v>2.823979</v>
       </c>
       <c r="O10">
-        <v>0.1509122114486466</v>
+        <v>0.1497642283041117</v>
       </c>
       <c r="P10">
-        <v>0.1509122114486466</v>
+        <v>0.1497642283041117</v>
       </c>
       <c r="Q10">
-        <v>6.510906842702378</v>
+        <v>7.001796438207445</v>
       </c>
       <c r="R10">
-        <v>6.510906842702378</v>
+        <v>63.016167943867</v>
       </c>
       <c r="S10">
-        <v>0.05818919199674888</v>
+        <v>0.05557203001854275</v>
       </c>
       <c r="T10">
-        <v>0.05818919199674888</v>
+        <v>0.05557203001854275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.28673524619475</v>
+        <v>7.438224333333333</v>
       </c>
       <c r="H11">
-        <v>7.28673524619475</v>
+        <v>22.314673</v>
       </c>
       <c r="I11">
-        <v>0.3855830581115689</v>
+        <v>0.3710634418367117</v>
       </c>
       <c r="J11">
-        <v>0.3855830581115689</v>
+        <v>0.3710634418367116</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.866276390633301</v>
+        <v>0.9574039999999999</v>
       </c>
       <c r="N11">
-        <v>0.866276390633301</v>
+        <v>2.872212</v>
       </c>
       <c r="O11">
-        <v>0.1463094475149766</v>
+        <v>0.1523221715550325</v>
       </c>
       <c r="P11">
-        <v>0.1463094475149766</v>
+        <v>0.1523221715550325</v>
       </c>
       <c r="Q11">
-        <v>6.312326708574046</v>
+        <v>7.121385729630666</v>
       </c>
       <c r="R11">
-        <v>6.312326708574046</v>
+        <v>64.092471566676</v>
       </c>
       <c r="S11">
-        <v>0.05641444420343877</v>
+        <v>0.05652118924525243</v>
       </c>
       <c r="T11">
-        <v>0.05641444420343877</v>
+        <v>0.05652118924525242</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>9.806582733144079</v>
+        <v>0.028387</v>
       </c>
       <c r="H12">
-        <v>9.806582733144079</v>
+        <v>0.085161</v>
       </c>
       <c r="I12">
-        <v>0.5189226769072518</v>
+        <v>0.001416114579418493</v>
       </c>
       <c r="J12">
-        <v>0.5189226769072518</v>
+        <v>0.001416114579418493</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.01781393798164</v>
+        <v>1.094639333333333</v>
       </c>
       <c r="N12">
-        <v>1.01781393798164</v>
+        <v>3.283918</v>
       </c>
       <c r="O12">
-        <v>0.1719033284865006</v>
+        <v>0.1741561977210106</v>
       </c>
       <c r="P12">
-        <v>0.1719033284865006</v>
+        <v>0.1741561977210106</v>
       </c>
       <c r="Q12">
-        <v>9.98127658976413</v>
+        <v>0.03107352675533333</v>
       </c>
       <c r="R12">
-        <v>9.98127658976413</v>
+        <v>0.279661740798</v>
       </c>
       <c r="S12">
-        <v>0.08920453538748152</v>
+        <v>0.0002466251306888128</v>
       </c>
       <c r="T12">
-        <v>0.08920453538748152</v>
+        <v>0.0002466251306888128</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>9.806582733144079</v>
+        <v>0.028387</v>
       </c>
       <c r="H13">
-        <v>9.806582733144079</v>
+        <v>0.085161</v>
       </c>
       <c r="I13">
-        <v>0.5189226769072518</v>
+        <v>0.001416114579418493</v>
       </c>
       <c r="J13">
-        <v>0.5189226769072518</v>
+        <v>0.001416114579418493</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.58866678019261</v>
+        <v>1.695098</v>
       </c>
       <c r="N13">
-        <v>1.58866678019261</v>
+        <v>5.085294</v>
       </c>
       <c r="O13">
-        <v>0.2683173192858829</v>
+        <v>0.2696886668100327</v>
       </c>
       <c r="P13">
-        <v>0.2683173192858829</v>
+        <v>0.2696886668100327</v>
       </c>
       <c r="Q13">
-        <v>15.57939221535645</v>
+        <v>0.048118746926</v>
       </c>
       <c r="R13">
-        <v>15.57939221535645</v>
+        <v>0.433068722334</v>
       </c>
       <c r="S13">
-        <v>0.1392359415844081</v>
+        <v>0.0003819100529736235</v>
       </c>
       <c r="T13">
-        <v>0.1392359415844081</v>
+        <v>0.0003819100529736235</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>9.806582733144079</v>
+        <v>0.028387</v>
       </c>
       <c r="H14">
-        <v>9.806582733144079</v>
+        <v>0.085161</v>
       </c>
       <c r="I14">
-        <v>0.5189226769072518</v>
+        <v>0.001416114579418493</v>
       </c>
       <c r="J14">
-        <v>0.5189226769072518</v>
+        <v>0.001416114579418493</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.55456489459066</v>
+        <v>1.596920666666667</v>
       </c>
       <c r="N14">
-        <v>1.55456489459066</v>
+        <v>4.790762</v>
       </c>
       <c r="O14">
-        <v>0.2625576932639932</v>
+        <v>0.2540687356098125</v>
       </c>
       <c r="P14">
-        <v>0.2625576932639932</v>
+        <v>0.2540687356098125</v>
       </c>
       <c r="Q14">
-        <v>15.24496925284471</v>
+        <v>0.04533178696466666</v>
       </c>
       <c r="R14">
-        <v>15.24496925284471</v>
+        <v>0.407986082682</v>
       </c>
       <c r="S14">
-        <v>0.1362471410311445</v>
+        <v>0.0003597904406714779</v>
       </c>
       <c r="T14">
-        <v>0.1362471410311445</v>
+        <v>0.0003597904406714779</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>9.806582733144079</v>
+        <v>0.028387</v>
       </c>
       <c r="H15">
-        <v>9.806582733144079</v>
+        <v>0.085161</v>
       </c>
       <c r="I15">
-        <v>0.5189226769072518</v>
+        <v>0.001416114579418493</v>
       </c>
       <c r="J15">
-        <v>0.5189226769072518</v>
+        <v>0.001416114579418493</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.893528668562849</v>
+        <v>0.9413263333333334</v>
       </c>
       <c r="N15">
-        <v>0.893528668562849</v>
+        <v>2.823979</v>
       </c>
       <c r="O15">
-        <v>0.1509122114486466</v>
+        <v>0.1497642283041117</v>
       </c>
       <c r="P15">
-        <v>0.1509122114486466</v>
+        <v>0.1497642283041117</v>
       </c>
       <c r="Q15">
-        <v>8.762462812697654</v>
+        <v>0.02672143062433333</v>
       </c>
       <c r="R15">
-        <v>8.762462812697654</v>
+        <v>0.240492875619</v>
       </c>
       <c r="S15">
-        <v>0.07831176874292491</v>
+        <v>0.0002120833071768123</v>
       </c>
       <c r="T15">
-        <v>0.07831176874292491</v>
+        <v>0.0002120833071768123</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.028387</v>
+      </c>
+      <c r="H16">
+        <v>0.085161</v>
+      </c>
+      <c r="I16">
+        <v>0.001416114579418493</v>
+      </c>
+      <c r="J16">
+        <v>0.001416114579418493</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9574039999999999</v>
+      </c>
+      <c r="N16">
+        <v>2.872212</v>
+      </c>
+      <c r="O16">
+        <v>0.1523221715550325</v>
+      </c>
+      <c r="P16">
+        <v>0.1523221715550325</v>
+      </c>
+      <c r="Q16">
+        <v>0.027177827348</v>
+      </c>
+      <c r="R16">
+        <v>0.244600446132</v>
+      </c>
+      <c r="S16">
+        <v>0.0002157056479077664</v>
+      </c>
+      <c r="T16">
+        <v>0.0002157056479077664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.73940533333333</v>
+      </c>
+      <c r="H17">
+        <v>32.218216</v>
+      </c>
+      <c r="I17">
+        <v>0.5357462383069029</v>
+      </c>
+      <c r="J17">
+        <v>0.5357462383069029</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.094639333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.283918</v>
+      </c>
+      <c r="O17">
+        <v>0.1741561977210106</v>
+      </c>
+      <c r="P17">
+        <v>0.1741561977210106</v>
+      </c>
+      <c r="Q17">
+        <v>11.75577549447644</v>
+      </c>
+      <c r="R17">
+        <v>105.801979450288</v>
+      </c>
+      <c r="S17">
+        <v>0.09330352780686466</v>
+      </c>
+      <c r="T17">
+        <v>0.09330352780686466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.73940533333333</v>
+      </c>
+      <c r="H18">
+        <v>32.218216</v>
+      </c>
+      <c r="I18">
+        <v>0.5357462383069029</v>
+      </c>
+      <c r="J18">
+        <v>0.5357462383069029</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.695098</v>
+      </c>
+      <c r="N18">
+        <v>5.085294</v>
+      </c>
+      <c r="O18">
+        <v>0.2696886668100327</v>
+      </c>
+      <c r="P18">
+        <v>0.2696886668100327</v>
+      </c>
+      <c r="Q18">
+        <v>18.20434450172267</v>
+      </c>
+      <c r="R18">
+        <v>163.839100515504</v>
+      </c>
+      <c r="S18">
+        <v>0.1444846887574787</v>
+      </c>
+      <c r="T18">
+        <v>0.1444846887574787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.73940533333333</v>
+      </c>
+      <c r="H19">
+        <v>32.218216</v>
+      </c>
+      <c r="I19">
+        <v>0.5357462383069029</v>
+      </c>
+      <c r="J19">
+        <v>0.5357462383069029</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.596920666666667</v>
+      </c>
+      <c r="N19">
+        <v>4.790762</v>
+      </c>
+      <c r="O19">
+        <v>0.2540687356098125</v>
+      </c>
+      <c r="P19">
+        <v>0.2540687356098125</v>
+      </c>
+      <c r="Q19">
+        <v>17.14997832451022</v>
+      </c>
+      <c r="R19">
+        <v>154.349804920592</v>
+      </c>
+      <c r="S19">
+        <v>0.1361163693743481</v>
+      </c>
+      <c r="T19">
+        <v>0.1361163693743481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9.806582733144079</v>
-      </c>
-      <c r="H16">
-        <v>9.806582733144079</v>
-      </c>
-      <c r="I16">
-        <v>0.5189226769072518</v>
-      </c>
-      <c r="J16">
-        <v>0.5189226769072518</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.866276390633301</v>
-      </c>
-      <c r="N16">
-        <v>0.866276390633301</v>
-      </c>
-      <c r="O16">
-        <v>0.1463094475149766</v>
-      </c>
-      <c r="P16">
-        <v>0.1463094475149766</v>
-      </c>
-      <c r="Q16">
-        <v>8.495211094514906</v>
-      </c>
-      <c r="R16">
-        <v>8.495211094514906</v>
-      </c>
-      <c r="S16">
-        <v>0.07592329016129273</v>
-      </c>
-      <c r="T16">
-        <v>0.07592329016129273</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.73940533333333</v>
+      </c>
+      <c r="H20">
+        <v>32.218216</v>
+      </c>
+      <c r="I20">
+        <v>0.5357462383069029</v>
+      </c>
+      <c r="J20">
+        <v>0.5357462383069029</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.9413263333333334</v>
+      </c>
+      <c r="N20">
+        <v>2.823979</v>
+      </c>
+      <c r="O20">
+        <v>0.1497642283041117</v>
+      </c>
+      <c r="P20">
+        <v>0.1497642283041117</v>
+      </c>
+      <c r="Q20">
+        <v>10.10928504460711</v>
+      </c>
+      <c r="R20">
+        <v>90.98356540146399</v>
+      </c>
+      <c r="S20">
+        <v>0.08023562194686404</v>
+      </c>
+      <c r="T20">
+        <v>0.08023562194686404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.73940533333333</v>
+      </c>
+      <c r="H21">
+        <v>32.218216</v>
+      </c>
+      <c r="I21">
+        <v>0.5357462383069029</v>
+      </c>
+      <c r="J21">
+        <v>0.5357462383069029</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9574039999999999</v>
+      </c>
+      <c r="N21">
+        <v>2.872212</v>
+      </c>
+      <c r="O21">
+        <v>0.1523221715550325</v>
+      </c>
+      <c r="P21">
+        <v>0.1523221715550325</v>
+      </c>
+      <c r="Q21">
+        <v>10.28194962375466</v>
+      </c>
+      <c r="R21">
+        <v>92.53754661379199</v>
+      </c>
+      <c r="S21">
+        <v>0.08160603042134741</v>
+      </c>
+      <c r="T21">
+        <v>0.08160603042134741</v>
       </c>
     </row>
   </sheetData>
